--- a/SemanaAtual.xlsx
+++ b/SemanaAtual.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$AI$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$AI$53</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI27"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,12 +447,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="446" customWidth="1" min="5" max="5"/>
-    <col width="36" customWidth="1" min="6" max="6"/>
+    <col width="72" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="18" customWidth="1" min="9" max="9"/>
@@ -460,19 +460,19 @@
     <col width="21" customWidth="1" min="11" max="11"/>
     <col width="18" customWidth="1" min="12" max="12"/>
     <col width="19" customWidth="1" min="13" max="13"/>
-    <col width="38" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="36" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
     <col width="46" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
     <col width="5" customWidth="1" min="18" max="18"/>
     <col width="18" customWidth="1" min="19" max="19"/>
     <col width="19" customWidth="1" min="20" max="20"/>
     <col width="17" customWidth="1" min="21" max="21"/>
-    <col width="13" customWidth="1" min="22" max="22"/>
+    <col width="28" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="13" customWidth="1" min="25" max="25"/>
-    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="13" customWidth="1" min="26" max="26"/>
     <col width="4" customWidth="1" min="27" max="27"/>
     <col width="5" customWidth="1" min="28" max="28"/>
     <col width="5" customWidth="1" min="29" max="29"/>
@@ -686,11 +686,12 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2029422128</v>
+        <v>2030009785</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>22BAT10 - MONTAGEM DE ANDAIME E LINHA DE VIDA PARA ENSAIO FATOR DE POTÊNCIA BUCHAS PRIMARIA  DO TRANSFORMADOR(ALTA)</t>
+          <t>MANUT DETECTORES DE FUMAÇA GT11
+--&gt; MONTAGEM DE  ANDAIME PARA EFETUAR PREVENTIVA NO DETECTOR DE FUMAÇA DE GERADOR</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
@@ -698,7 +699,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>19.938.655 salva</t>
+          <t>19.965.363 salva</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -718,7 +719,7 @@
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>Corretiva</t>
+          <t>Preventiva</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
@@ -738,7 +739,7 @@
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P2" s="2" t="inlineStr">
@@ -769,7 +770,7 @@
         </is>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5281975</v>
+        <v>5301597</v>
       </c>
       <c r="W2" s="2" t="inlineStr">
         <is>
@@ -784,22 +785,18 @@
       <c r="Y2" s="2" t="inlineStr"/>
       <c r="Z2" s="2" t="inlineStr"/>
       <c r="AA2" s="2" t="inlineStr"/>
-      <c r="AB2" s="2" t="inlineStr"/>
-      <c r="AC2" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="inlineStr"/>
       <c r="AD2" s="2" t="inlineStr"/>
       <c r="AE2" s="2" t="inlineStr"/>
       <c r="AF2" s="2" t="inlineStr"/>
       <c r="AG2" s="2" t="inlineStr"/>
       <c r="AH2" s="2" t="inlineStr"/>
-      <c r="AI2" s="2" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
+      <c r="AI2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -818,20 +815,20 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2030367246</v>
+        <v>2030009785</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>GT21-MONTAGEM DE ANDAIME 21CYQ01CQ241/2
-- MONTAGEM DE ANDAIME PARA EFETUAR A TROCA DO DETECTORES DE GÁS 21CYQ01CQ241/2.</t>
+          <t>MANUT DETECTORES DE FUMAÇA GT11
+--&gt; DESMONTAGEM DE  ANDAIME PARA EFETUAR PREVENTIVA NO DETECTOR DE FUMAÇA DE GERADOR</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>19.938.657 salva</t>
+          <t>19.965.376 salva</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -851,7 +848,7 @@
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>Corretiva</t>
+          <t>Preventiva</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
@@ -866,12 +863,12 @@
       </c>
       <c r="N3" s="2" t="inlineStr">
         <is>
-          <t>13,17,32,46</t>
+          <t>13,17,32</t>
         </is>
       </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P3" s="2" t="inlineStr">
@@ -902,11 +899,11 @@
         </is>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5302980</v>
+        <v>5301597</v>
       </c>
       <c r="W3" s="2" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="X3" s="2" t="inlineStr">
@@ -918,26 +915,22 @@
       <c r="Z3" s="2" t="inlineStr"/>
       <c r="AA3" s="2" t="inlineStr"/>
       <c r="AB3" s="2" t="inlineStr"/>
-      <c r="AC3" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC3" s="2" t="inlineStr"/>
       <c r="AD3" s="2" t="inlineStr"/>
       <c r="AE3" s="2" t="inlineStr"/>
-      <c r="AF3" s="2" t="inlineStr"/>
+      <c r="AF3" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AG3" s="2" t="inlineStr"/>
       <c r="AH3" s="2" t="inlineStr"/>
-      <c r="AI3" s="2" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
+      <c r="AI3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AR CONDICIONADO</t>
+          <t>ANDAIME</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -951,22 +944,20 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2030045979</v>
+        <v>2029675573</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>GT12 (MODULO BB 12SAC20AH001 - MELHORIA VISUAL      
--  REALIZAR A MELHORIA VISUAL DOS MODULOS  BB. ONDE SERÁ
-REMOVIDO AS TUBULAÇÕES DE DRENO ANTIGAS E REALIZADO A MUDANÇA DE LADO
-DAS CONDENSADORAS PARA PARTE DE TRÁS DO MODULO.</t>
+          <t>GT22 (22LBC30AA321 ISOLAMENTO TÉRMICO SOLTO)
+-&gt; DESMONTAGEM DE ANDAIME USADO PARA REALIZAR A REMOÇÃO DO ISOLAMENTO E TRATAMENTO DE SUPERFICIE E PINTURA DA TUBULAÇÃO E VÁLVULA</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>19.938.663 salva</t>
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -1001,19 +992,18 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13, 14, 15, 17, 19, 61, 68</t>
+          <t>13,17,32</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>G1AT
-G1G1
-FZMH</t>
+          <t>44583340
+47885986</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -1029,7 +1019,7 @@
       <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>A Quente</t>
+          <t>A Frio</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -1038,7 +1028,7 @@
         </is>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5256486</v>
+        <v>5230041</v>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
@@ -1054,34 +1044,26 @@
       <c r="Z4" s="2" t="inlineStr"/>
       <c r="AA4" s="2" t="inlineStr"/>
       <c r="AB4" s="2" t="inlineStr"/>
-      <c r="AC4" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC4" s="2" t="inlineStr"/>
       <c r="AD4" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AE4" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF4" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE4" s="2" t="inlineStr"/>
+      <c r="AF4" s="2" t="inlineStr"/>
       <c r="AG4" s="2" t="inlineStr"/>
       <c r="AH4" s="2" t="inlineStr"/>
-      <c r="AI4" s="2" t="inlineStr"/>
+      <c r="AI4" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>CIVIL/ELÉTRICA</t>
+          <t>ANDAIME</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -1095,20 +1077,19 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2030321621</v>
+        <v>2029512610</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>NPI-ADM
-REALIZAR A ORGANIZAÇÃO DOS CABOS PRÉDIO DA MANUTENÇÃO 5's</t>
+          <t xml:space="preserve">GALPÃO DE RESIDUOS-DESMONTAGEM DE ANDAIME PARA CALDEIRARIA ARRUMAR O TRILHO REINSTALAR PORTÃO.     </t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>19.965.392 salva</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1143,7 +1124,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,13,14,19,40</t>
+          <t>13,17,32</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
@@ -1153,10 +1134,8 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">70119133
-70196255
-71923018
-</t>
+          <t>44583340
+47885986</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -1169,14 +1148,10 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
+      <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>A Quente</t>
+          <t>A Frio</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -1185,7 +1160,7 @@
         </is>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5277997</v>
+        <v>5285220</v>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
@@ -1201,26 +1176,14 @@
       <c r="Z5" s="2" t="inlineStr"/>
       <c r="AA5" s="2" t="inlineStr"/>
       <c r="AB5" s="2" t="inlineStr"/>
-      <c r="AC5" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC5" s="2" t="inlineStr"/>
       <c r="AD5" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AE5" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF5" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE5" s="2" t="inlineStr"/>
+      <c r="AF5" s="2" t="inlineStr"/>
       <c r="AG5" s="2" t="inlineStr"/>
       <c r="AH5" s="2" t="inlineStr"/>
       <c r="AI5" s="2" t="inlineStr"/>
@@ -1228,7 +1191,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>CIVIL/ELÉTRICA</t>
+          <t>ANDAIME</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -1242,20 +1205,20 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2030322479</v>
+        <v>2029961348</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>NPI-ADM
-INSTALAÇÃO ELÉTRICA NA NOVA COPA DA OPERAÇÃO</t>
+          <t>QUARTO 05 (CONSERTO DAS PORTAS DO QUARTO 5)
+DESMONTAGEM DE ANDAIME</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>19.965.404 salva</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1290,7 +1253,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,13,14,19,40,68</t>
+          <t>13,17,32</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
@@ -1300,9 +1263,8 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">70196255
-70119133
-</t>
+          <t>44583340
+47885986</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1315,14 +1277,10 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
+      <c r="S6" s="2" t="inlineStr"/>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>A Quente</t>
+          <t>A Frio</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1331,7 +1289,7 @@
         </is>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5289650</v>
+        <v>5211423</v>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
@@ -1352,29 +1310,21 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD6" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE6" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF6" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AD6" s="2" t="inlineStr"/>
+      <c r="AE6" s="2" t="inlineStr"/>
+      <c r="AF6" s="2" t="inlineStr"/>
       <c r="AG6" s="2" t="inlineStr"/>
       <c r="AH6" s="2" t="inlineStr"/>
-      <c r="AI6" s="2" t="inlineStr"/>
+      <c r="AI6" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>CIVIL/PEDREIRO</t>
+          <t>ANDAIME</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -1384,29 +1334,31 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>G&amp;E/UN-TERM/UTE-NPI/MAN</t>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2029461873</v>
+        <v>2029673511</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>NPI - ADEQUAÇÃO DA ÁREA DE CONVIVENCIA.
-RALIZAR A REFORMA DA NOVA ÁREA DE CONVIVENCIA.(REBOCO INTERNO E EXTERNO)</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>não</t>
+          <t>MONTAGEM/DESMONTAGEM DE ANDAIME PARA EFETUAR A TROCA DO DETECTORES DE GÁS 12CYQ01CQ241/12CYQ01CQ242</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20
+60</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -1436,19 +1388,18 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,8,13,14,15,17,19,30,55,57,58,60,68</t>
+          <t>13,17,32,46</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">70196255
-49432655
-</t>
+          <t>44583340
+47885986</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1461,27 +1412,23 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
+      <c r="S7" s="2" t="inlineStr"/>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>A Quente</t>
+          <t>A Frio</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>5183080</v>
+        <v>5302973</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="X7" s="2" t="inlineStr">
@@ -1492,7 +1439,11 @@
       <c r="Y7" s="2" t="inlineStr"/>
       <c r="Z7" s="2" t="inlineStr"/>
       <c r="AA7" s="2" t="inlineStr"/>
-      <c r="AB7" s="2" t="inlineStr"/>
+      <c r="AB7" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AC7" s="2" t="inlineStr">
         <is>
           <t>X</t>
@@ -1503,16 +1454,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AE7" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF7" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE7" s="2" t="inlineStr"/>
+      <c r="AF7" s="2" t="inlineStr"/>
       <c r="AG7" s="2" t="inlineStr"/>
       <c r="AH7" s="2" t="inlineStr"/>
       <c r="AI7" s="2" t="inlineStr"/>
@@ -1520,7 +1463,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>CIVIL/PEDREIRO</t>
+          <t>ANDAIME</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1530,24 +1473,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>G&amp;E/UN-TERM/UTE-NPI/MAN</t>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2030428478</v>
+        <v>2030367246</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">                              NPI -ADM
-REALIZAR SUBSTITUIÇÃO DAS TELHAS DA SALA DA JOMAGA</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>não</t>
+          <t>MONTAGEM/DESMONTAGEM DE ANDAIME PARA EFETUAR A TROCA DO DETECTORES DE GÁS 21CYQ01CQ241/21CYQ01CQ242.</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10
+50</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1582,18 +1527,18 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,13,14,17,19</t>
+          <t>13,17,32,46</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>70119133
-71923018</t>
+          <t>44583340
+47885986</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1606,27 +1551,23 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
+      <c r="S8" s="2" t="inlineStr"/>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>A Quente</t>
+          <t>A Frio</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5304301</v>
+        <v>5302980</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="X8" s="2" t="inlineStr">
@@ -1637,7 +1578,11 @@
       <c r="Y8" s="2" t="inlineStr"/>
       <c r="Z8" s="2" t="inlineStr"/>
       <c r="AA8" s="2" t="inlineStr"/>
-      <c r="AB8" s="2" t="inlineStr"/>
+      <c r="AB8" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AC8" s="2" t="inlineStr">
         <is>
           <t>X</t>
@@ -1648,16 +1593,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AE8" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF8" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE8" s="2" t="inlineStr"/>
+      <c r="AF8" s="2" t="inlineStr"/>
       <c r="AG8" s="2" t="inlineStr"/>
       <c r="AH8" s="2" t="inlineStr"/>
       <c r="AI8" s="2" t="inlineStr"/>
@@ -1665,39 +1602,39 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>CIVIL/PINTOR</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Emitir</t>
+          <t>ANDAIME</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Sem AR</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>G&amp;E/UN-TERM/UTE-NPI/MAN</t>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2030266067</v>
+        <v>2030455961</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>NPI-ADM
-REALIZAR A PINTURA EXTERNA NO PRÉDIO DA MANUTENÇÃO</t>
+          <t>CCM- EATON- DESINSTALAÇÃO E INSTALAÇÃO AC
+MONTAGEM DE ANDAIME PARA SUBSTITUIÇÃO DE INFRA ESTRUTURA DE AR CONDICIONADO 19SAC20AH005</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>não</t>
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1727,7 +1664,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,11,13,14,17,19,30</t>
+          <t>13,17,32</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
@@ -1737,9 +1674,8 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>72352608
-72439806
-72278508</t>
+          <t>44583340
+47885986</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1752,14 +1688,10 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>PTA</t>
-        </is>
-      </c>
+      <c r="S9" s="2" t="inlineStr"/>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>A Quente</t>
+          <t>A Frio</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1767,8 +1699,10 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="V9" s="2" t="n">
-        <v>5273549</v>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>ELABORAR</t>
+        </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
@@ -1784,11 +1718,7 @@
       <c r="Z9" s="2" t="inlineStr"/>
       <c r="AA9" s="2" t="inlineStr"/>
       <c r="AB9" s="2" t="inlineStr"/>
-      <c r="AC9" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC9" s="2" t="inlineStr"/>
       <c r="AD9" s="2" t="inlineStr">
         <is>
           <t>X</t>
@@ -1803,7 +1733,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>ELÉTRICA</t>
+          <t>AR CONDICIONADO</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1817,24 +1747,20 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2029289116</v>
+        <v>2030455961</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>GT22 - MODERNIZAÇÃO DO SISTEMA DE SINCRONISMO DO GERADOR (ABB)
-- DESMONTAGEM DO SYNCHROTACT 4 E MONTAGEM DO EQUIPAMENTO SYNCHROTACT 6
-- COMISSIONAMENTO COM A MÁQUINA PARADA</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>20
-30</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>19.938.669 salva</t>
+          <t>CCM- EATON- DESINSTALAÇÃO E INSTALAÇÃO AC 19SAC20AH005.
+- REVISAR CICUITO DE COMANDO E POTENCIA;</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1869,7 +1795,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13, 40</t>
+          <t>13, 14, 15, 17, 19,28,47, 61</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
@@ -1879,10 +1805,9 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>TQ25
-DTMZ
-DTO5
-E0FV</t>
+          <t>G1AT
+G1G1
+FZMH</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1898,16 +1823,14 @@
       <c r="S10" s="2" t="inlineStr"/>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>A Frio</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="n">
-        <v>5285170</v>
+          <t>A Quente</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr"/>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>ELABORAR</t>
+        </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
@@ -1923,21 +1846,13 @@
       <c r="Z10" s="2" t="inlineStr"/>
       <c r="AA10" s="2" t="inlineStr"/>
       <c r="AB10" s="2" t="inlineStr"/>
-      <c r="AC10" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC10" s="2" t="inlineStr"/>
       <c r="AD10" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AE10" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE10" s="2" t="inlineStr"/>
       <c r="AF10" s="2" t="inlineStr">
         <is>
           <t>X</t>
@@ -1950,33 +1865,34 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>ELÉTRICA</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Elaborar</t>
+          <t>CIVIL/ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+          <t>G&amp;E/UN-TERM/UTE-NPI/MAN</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2029289116</v>
+        <v>2030321621</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>GT22 - ABERTURA DO LINK DO GERADOR E APLICAÇÃO DE ATERRAMENTO TEMPORÁRIO NO NEUTRAL POINT</t>
+          <t>NPI-ADM
+REALIZAR A ORGANIZAÇÃO DOS CABOS PRÉDIO DA OPERAÇÃO 5's</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
+        <v>20</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>não</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2011,20 +1927,20 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,17,40</t>
+          <t>13,14,19,40</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>TQ25
-DTMZ
-DTO5
-E0FV</t>
+          <t xml:space="preserve">70119133
+70196255
+71923018
+</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -2040,7 +1956,7 @@
       <c r="S11" s="2" t="inlineStr"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>A Frio</t>
+          <t>A Quente</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -2048,8 +1964,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="V11" s="2" t="n">
-        <v>5285170</v>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+5277997</t>
+        </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
@@ -2062,21 +1981,29 @@
         </is>
       </c>
       <c r="Y11" s="2" t="inlineStr"/>
-      <c r="Z11" s="2" t="inlineStr">
-        <is>
-          <t>LIBRA PARCIAL</t>
-        </is>
-      </c>
+      <c r="Z11" s="2" t="inlineStr"/>
       <c r="AA11" s="2" t="inlineStr"/>
-      <c r="AB11" s="2" t="inlineStr"/>
+      <c r="AB11" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AC11" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AD11" s="2" t="inlineStr"/>
+      <c r="AD11" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AE11" s="2" t="inlineStr"/>
-      <c r="AF11" s="2" t="inlineStr"/>
+      <c r="AF11" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AG11" s="2" t="inlineStr"/>
       <c r="AH11" s="2" t="inlineStr"/>
       <c r="AI11" s="2" t="inlineStr"/>
@@ -2084,41 +2011,39 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>ELÉTRICA</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Elaborar</t>
+          <t>CIVIL/PEDREIRO</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+          <t>G&amp;E/UN-TERM/UTE-NPI/MAN</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2029422128</v>
+        <v>2029407141</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22BAT10 - ENSAIO FATOR DE POTÊNCIANCIA NAS BUCHAS PRIMARIA(ALTA) FASE A, FASE B, FASE C E SUBSTITUIÇÃO DE JUNTA DE DILATAÇÃO</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10
-40</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>NPI - CONSTRUÇÃO DA COPA DA OPERAÇÃO.
+REALIZAR A CONSTRUÇÃO DA NOVA COPA DA OPERAÇÃO (INSTALAÇÃO DE TUBULAÇÃO DE ÁGUA)</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>não</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2148,20 +2073,19 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>13,17,40</t>
+          <t>8,13,14,15,17,19,30,55,57,58,60,68</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>TQ25
-DTMZ
-DTO5
-E0FV</t>
+          <t>70192318
+46751925
+46752541</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -2177,7 +2101,7 @@
       <c r="S12" s="2" t="inlineStr"/>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>A Frio</t>
+          <t>A Quente</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -2186,7 +2110,7 @@
         </is>
       </c>
       <c r="V12" s="2" t="n">
-        <v>5281975</v>
+        <v>5145133</v>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
@@ -2201,7 +2125,11 @@
       <c r="Y12" s="2" t="inlineStr"/>
       <c r="Z12" s="2" t="inlineStr"/>
       <c r="AA12" s="2" t="inlineStr"/>
-      <c r="AB12" s="2" t="inlineStr"/>
+      <c r="AB12" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AC12" s="2" t="inlineStr">
         <is>
           <t>X</t>
@@ -2212,11 +2140,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AE12" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE12" s="2" t="inlineStr"/>
       <c r="AF12" s="2" t="inlineStr">
         <is>
           <t>X</t>
@@ -2224,16 +2148,12 @@
       </c>
       <c r="AG12" s="2" t="inlineStr"/>
       <c r="AH12" s="2" t="inlineStr"/>
-      <c r="AI12" s="2" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
+      <c r="AI12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>INSTRUMENTAÇÃO</t>
+          <t>CIVIL/PEDREIRO</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -2247,20 +2167,20 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>2030313171</v>
+        <v>2029542357</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>SALA CONTROLE - REPARO/REMANEJO FIBRA ÓTICA
-O CABO ÓTICO COM 6 PARES DE FIBRAS É CONECTADO NO GABINETE 19CWP03 DA SALA DE CONTROLE E SE ESTENDE ATÉ O PRÉDIO VISION. ATUALMENTE, AS FIBRAS ESTÃO ROMPIDAS NO ACOPLADOR ÓTICO. O TRABALHO SERÁ REALIZADO COM O APOIO DA TIC. O CABO ÓTICO PRECISA SER CORTADO E REMANEJADO PARA UMA DAS BANDEJAS LIVRES DO DIO. ALÉM DISSO, O PIG TAIL DEVERÁ SER REMANEJADO E AS CONEXÕES NESTA BANDEJA REFEITAS. 14/04/2025</t>
+          <t>NPI-OP
+BOP SUBSTITUIR TELHADO COMPRESSOR DE AR</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>não</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -2295,7 +2215,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13, 39</t>
+          <t>11,13,14,17,19,55</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
@@ -2305,7 +2225,9 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>ZMQY</t>
+          <t>70119133
+71923018
+49432655</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -2318,10 +2240,14 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="S13" s="2" t="inlineStr"/>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>PTA</t>
+        </is>
+      </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>A Frio</t>
+          <t>A Quente</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -2330,7 +2256,7 @@
         </is>
       </c>
       <c r="V13" s="2" t="n">
-        <v>5282313</v>
+        <v>5292454</v>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
@@ -2351,9 +2277,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD13" s="2" t="inlineStr"/>
+      <c r="AD13" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AE13" s="2" t="inlineStr"/>
-      <c r="AF13" s="2" t="inlineStr"/>
+      <c r="AF13" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AG13" s="2" t="inlineStr"/>
       <c r="AH13" s="2" t="inlineStr"/>
       <c r="AI13" s="2" t="inlineStr"/>
@@ -2361,36 +2295,2180 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
+          <t>CIVIL/PINTOR</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/MAN</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>2030266067</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>NPI-ADM
+REALIZAR A PINTURA EXTERNA NO PRÉDIO DA MANUTENÇÃO</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>PTT</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11,13,14,17,19,30</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>72352608
+72439806
+72278508</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>PTA</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>A Quente</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>5273549</v>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X14" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y14" s="2" t="inlineStr"/>
+      <c r="Z14" s="2" t="inlineStr"/>
+      <c r="AA14" s="2" t="inlineStr"/>
+      <c r="AB14" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC14" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD14" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE14" s="2" t="inlineStr"/>
+      <c r="AF14" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG14" s="2" t="inlineStr"/>
+      <c r="AH14" s="2" t="inlineStr"/>
+      <c r="AI14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>CIVIL/ZELADORIA</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>2030428479</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>NPI-OP
+SUBSTITUIÇÃO DAS CORDAS DE ISOLAMENTO DA ÁREA INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>Reemitir</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">72201357
+72278508
+</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr"/>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>5303311</v>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X15" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y15" s="2" t="inlineStr"/>
+      <c r="Z15" s="2" t="inlineStr"/>
+      <c r="AA15" s="2" t="inlineStr"/>
+      <c r="AB15" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC15" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD15" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE15" s="2" t="inlineStr"/>
+      <c r="AF15" s="2" t="inlineStr"/>
+      <c r="AG15" s="2" t="inlineStr"/>
+      <c r="AH15" s="2" t="inlineStr"/>
+      <c r="AI15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>2029896935</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>EATON-19BRV10-FMEA-INSPEÇÃO E MANUTENÇÃO PREVENTIVA DO GERADOR DE EMERGÊNCIA, INCLUINDO TESTES DE FUNCIONAMENTO, VERIFICAÇÃO DE PARÂMETROS E SISTEMAS DE SEGURANÇA. AS ATIVIDADES SERÃO REALIZADAS UTILIZANDO FERRAMENTAS MANUAIS.
+- SERÃO UTILIZADAS FERRAMENTAS MANUAIS.</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>19.965.426 salva</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>Preventiva</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13, 40</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>TQ25
+DTMZ
+DTO5
+E0FV</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr"/>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>5310072
+AR FORA DA PASTA</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X16" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y16" s="2" t="inlineStr"/>
+      <c r="Z16" s="2" t="inlineStr"/>
+      <c r="AA16" s="2" t="inlineStr"/>
+      <c r="AB16" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC16" s="2" t="inlineStr"/>
+      <c r="AD16" s="2" t="inlineStr"/>
+      <c r="AE16" s="2" t="inlineStr"/>
+      <c r="AF16" s="2" t="inlineStr"/>
+      <c r="AG16" s="2" t="inlineStr"/>
+      <c r="AH16" s="2" t="inlineStr"/>
+      <c r="AI16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>2029896935</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>EATON-19BRV10-FMEA-INSPEÇÃO E REAPERTOS ANUAL GERADOR DE EMERGENCIA.
+- SERÃO UTILIZADAS FERRAMENTAS MANUAIS.</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>19.965.439 salva</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>Preventiva</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13, 40</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>TQ25
+DTMZ
+DTO5
+E0FV</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr"/>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>5310072
+AR FORA DA PASTA</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X17" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y17" s="2" t="inlineStr"/>
+      <c r="Z17" s="2" t="inlineStr"/>
+      <c r="AA17" s="2" t="inlineStr"/>
+      <c r="AB17" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC17" s="2" t="inlineStr"/>
+      <c r="AD17" s="2" t="inlineStr"/>
+      <c r="AE17" s="2" t="inlineStr"/>
+      <c r="AF17" s="2" t="inlineStr"/>
+      <c r="AG17" s="2" t="inlineStr"/>
+      <c r="AH17" s="2" t="inlineStr"/>
+      <c r="AI17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>2030381016</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GT21-INSTALAR REFLETOR ENTRE O ENCLOSURE GERADOR LADO (SUL) EXTERNO E MODULO BB/CC;
+- USO DE ESCADA TIPO A";
+- RISCO RELACIONADO A USO DE ESCADA PORTATEIS;
+- USO DE PARAFUSADEIRA A BATERIA;
+- SERÃO UTILIZADAS FERRAMENTAS MANUAIS.
+</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>19.965.450 salva</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13,14,15,19,40,68</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>TQ25
+DTMZ
+DTO5
+E0FV</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr"/>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>A Quente</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>5310286</v>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X18" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y18" s="2" t="inlineStr"/>
+      <c r="Z18" s="2" t="inlineStr"/>
+      <c r="AA18" s="2" t="inlineStr"/>
+      <c r="AB18" s="2" t="inlineStr"/>
+      <c r="AC18" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD18" s="2" t="inlineStr"/>
+      <c r="AE18" s="2" t="inlineStr"/>
+      <c r="AF18" s="2" t="inlineStr"/>
+      <c r="AG18" s="2" t="inlineStr"/>
+      <c r="AH18" s="2" t="inlineStr"/>
+      <c r="AI18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>2030382883</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>GT22-SUBSTITUIÇÃO DAS LAMPADAS QUEIMADAS NAS AREA EXTERNA DO ENCLOUSURE S/ TRAF/BAC2011BBT20.
+- USO DE ESCADA TIPO A"
+- USO DE CINTO SEGURANÇA (PARA-QUEDISTA) COM 2 TALABARTES;
+- RISCOS RELACIONADOS A ESCADA PORTATEIS;
+- RISCO DE QUEDA(ACIMA DE 2 METROS)AO ACESSAR A ESCADA MARINHEIRO(BAC20);</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>19.965.469 salva</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>13,17,40,68</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>TQ25
+DTMZ
+DTO5
+E0FV</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>5310240</v>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X19" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y19" s="2" t="inlineStr"/>
+      <c r="Z19" s="2" t="inlineStr"/>
+      <c r="AA19" s="2" t="inlineStr"/>
+      <c r="AB19" s="2" t="inlineStr"/>
+      <c r="AC19" s="2" t="inlineStr"/>
+      <c r="AD19" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE19" s="2" t="inlineStr"/>
+      <c r="AF19" s="2" t="inlineStr"/>
+      <c r="AG19" s="2" t="inlineStr"/>
+      <c r="AH19" s="2" t="inlineStr"/>
+      <c r="AI19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
           <t>INSTRUMENTAÇÃO</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>Emitir</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>2029215438</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> GT22 (22CRC20 ATUALIZAÇÃO DOS CARTÕES ATOS  DE CONTROLE DE MODULAÇÃO DAS VÁLVULAS BLOW OFF E VIGV'S)
-- CONFERÊNCIA DO DIAGRAMA DE INTERLIGAÇÃO
-- REMOÇÃO DE CARTÕES OBSOLETOS
-- INSTALAR TRILHO DIN
-- INSTALAR NOVOS CARTÕES
-- PREPARAÇÃO/CONEXÃO CABEAMENTO
-- ENERGIZAR CARTÕES
-- PREPARAR LÓGICA PARA VIGV´S
-- PREPARAR LÓGICA PARA VIGV´S</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="D20" s="2" t="n">
+        <v>2030133417</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>MANUT PREV NOTIFIER PREDIO MANUT
+ EFETUAR MANUTENÇÃO PREVENTIVA SISTEMA DE COMBATE A INCENDIO NOTIFIER CONFORME PROCEDIMENTO PADRÃO</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>19.965.482 salva</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>Preventiva</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13,39,68</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>X7L1
+RSMU
+FIUU
+FIV0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>5309991
+AR FORA DA PASTA</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X20" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y20" s="2" t="inlineStr"/>
+      <c r="Z20" s="2" t="inlineStr"/>
+      <c r="AA20" s="2" t="inlineStr"/>
+      <c r="AB20" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC20" s="2" t="inlineStr"/>
+      <c r="AD20" s="2" t="inlineStr"/>
+      <c r="AE20" s="2" t="inlineStr"/>
+      <c r="AF20" s="2" t="inlineStr"/>
+      <c r="AG20" s="2" t="inlineStr"/>
+      <c r="AH20" s="2" t="inlineStr"/>
+      <c r="AI20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>2030009785</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>MANUT DETECTORES DE FUMAÇA GT11
+--&gt; EFETUAR PREVENTIVA CONFORME PROCEDIMENTO PADRÃO - PORÃO DE CABOS</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>19.965.493 salva</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>Preventiva</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13,16,39</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>X7L1
+RSMU
+FIUU
+FIV0</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr"/>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>5301597</v>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X21" s="2" t="inlineStr"/>
+      <c r="Y21" s="2" t="inlineStr"/>
+      <c r="Z21" s="2" t="inlineStr"/>
+      <c r="AA21" s="2" t="inlineStr"/>
+      <c r="AB21" s="2" t="inlineStr"/>
+      <c r="AC21" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD21" s="2" t="inlineStr"/>
+      <c r="AE21" s="2" t="inlineStr"/>
+      <c r="AF21" s="2" t="inlineStr"/>
+      <c r="AG21" s="2" t="inlineStr"/>
+      <c r="AH21" s="2" t="inlineStr"/>
+      <c r="AI21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>2030009785</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>MANUT DETECTORES DE FUMAÇA GT11
+--&gt; EFETUAR PREVENTIVA CONFORME PROCEDIMENTO PADRÃO -  GERADOR,BAC-20 E MÓDULOS</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>30
+50
+60</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>19.965.505 salva</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>Preventiva</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>13,17,39,68</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>X7L1
+RSMU
+FIUU
+FIV0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr"/>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>5301597</v>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X22" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y22" s="2" t="inlineStr"/>
+      <c r="Z22" s="2" t="inlineStr"/>
+      <c r="AA22" s="2" t="inlineStr"/>
+      <c r="AB22" s="2" t="inlineStr"/>
+      <c r="AC22" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD22" s="2" t="inlineStr"/>
+      <c r="AE22" s="2" t="inlineStr"/>
+      <c r="AF22" s="2" t="inlineStr"/>
+      <c r="AG22" s="2" t="inlineStr"/>
+      <c r="AH22" s="2" t="inlineStr"/>
+      <c r="AI22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>2029673511</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>GT12- DETECTOR EM FALHA 12CYQ01CQ
+-TROCAR DETECTORES 12CYQ01CQ241 E 12CYQ01CQ242</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>19.965.515 salva</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>13,17,39,46</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>SIM
+CO2</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>X7L1
+RSMU
+FIUU
+FIV0</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr"/>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>5302973</v>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="X23" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y23" s="2" t="inlineStr"/>
+      <c r="Z23" s="2" t="inlineStr"/>
+      <c r="AA23" s="2" t="inlineStr"/>
+      <c r="AB23" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC23" s="2" t="inlineStr"/>
+      <c r="AD23" s="2" t="inlineStr"/>
+      <c r="AE23" s="2" t="inlineStr"/>
+      <c r="AF23" s="2" t="inlineStr"/>
+      <c r="AG23" s="2" t="inlineStr"/>
+      <c r="AH23" s="2" t="inlineStr"/>
+      <c r="AI23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>2029673511</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>GT12- DETECTOR EM FALHA 12CYQ01CQ
+-COMISSIONAMENTO DETECTORES 12CYQ01CQ241 E 12CYQ01CQ242</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>19.965.575 salva</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>13,17,39,46</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>SIM
+CO2</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>X7L1
+RSMU
+FIUU
+FIV0</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr"/>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>5302973</v>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="X24" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y24" s="2" t="inlineStr"/>
+      <c r="Z24" s="2" t="inlineStr"/>
+      <c r="AA24" s="2" t="inlineStr"/>
+      <c r="AB24" s="2" t="inlineStr"/>
+      <c r="AC24" s="2" t="inlineStr"/>
+      <c r="AD24" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE24" s="2" t="inlineStr"/>
+      <c r="AF24" s="2" t="inlineStr"/>
+      <c r="AG24" s="2" t="inlineStr"/>
+      <c r="AH24" s="2" t="inlineStr"/>
+      <c r="AI24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>2030367246</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>GT21- DETECTOR EM FALHA 21CYQ01CQ
+-TROCAR DETECTORES 21CYQ01CQ241 E 21CYQ01CQ242</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>19.965.590 salva</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>13,17,39,46</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>SIM
+CO2</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>X7L1
+RSMU
+FIUU
+FIV0</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr"/>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="n">
+        <v>5302980</v>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="X25" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y25" s="2" t="inlineStr"/>
+      <c r="Z25" s="2" t="inlineStr"/>
+      <c r="AA25" s="2" t="inlineStr"/>
+      <c r="AB25" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC25" s="2" t="inlineStr"/>
+      <c r="AD25" s="2" t="inlineStr"/>
+      <c r="AE25" s="2" t="inlineStr"/>
+      <c r="AF25" s="2" t="inlineStr"/>
+      <c r="AG25" s="2" t="inlineStr"/>
+      <c r="AH25" s="2" t="inlineStr"/>
+      <c r="AI25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>2029673511</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>GT12- DETECTOR EM FALHA 12CYQ01CQ
+-CALIBRAR DETECTORES 12CYQ01CQ241 E 12CYQ01CQ242</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>Reemitir</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>13,17,39,46</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>SIM
+CO2</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>X7L1
+RSMU
+FIUU
+FIV0</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr"/>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="n">
+        <v>5302973</v>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="X26" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y26" s="2" t="inlineStr"/>
+      <c r="Z26" s="2" t="inlineStr"/>
+      <c r="AA26" s="2" t="inlineStr"/>
+      <c r="AB26" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC26" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD26" s="2" t="inlineStr"/>
+      <c r="AE26" s="2" t="inlineStr"/>
+      <c r="AF26" s="2" t="inlineStr"/>
+      <c r="AG26" s="2" t="inlineStr"/>
+      <c r="AH26" s="2" t="inlineStr"/>
+      <c r="AI26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>2030367246</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>GT21- DETECTOR EM FALHA 21CYQ01CQ
+-CALIBRAR DETECTORES 21CYQ01CQ241 E 21CYQ01CQ242</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>Reemitir</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>13,17,39,46</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>SIM
+CO2</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>X7L1
+RSMU
+FIUU
+FIV0</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr"/>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="n">
+        <v>5302980</v>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="X27" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y27" s="2" t="inlineStr"/>
+      <c r="Z27" s="2" t="inlineStr"/>
+      <c r="AA27" s="2" t="inlineStr"/>
+      <c r="AB27" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC27" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD27" s="2" t="inlineStr"/>
+      <c r="AE27" s="2" t="inlineStr"/>
+      <c r="AF27" s="2" t="inlineStr"/>
+      <c r="AG27" s="2" t="inlineStr"/>
+      <c r="AH27" s="2" t="inlineStr"/>
+      <c r="AI27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>2030367246</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>GT21- DETECTOR EM FALHA 21CYQ01CQ
+-COMISSIONAMENTO DETECTORES 21CYQ01CQ241 E 21CYQ01CQ242</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>19.965.624 salva</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>13,17,39,46</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>SIM
+CO2</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>X7L1
+RSMU
+FIUU
+FIV0</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr"/>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>5302980</v>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="X28" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y28" s="2" t="inlineStr"/>
+      <c r="Z28" s="2" t="inlineStr"/>
+      <c r="AA28" s="2" t="inlineStr"/>
+      <c r="AB28" s="2" t="inlineStr"/>
+      <c r="AC28" s="2" t="inlineStr"/>
+      <c r="AD28" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE28" s="2" t="inlineStr"/>
+      <c r="AF28" s="2" t="inlineStr"/>
+      <c r="AG28" s="2" t="inlineStr"/>
+      <c r="AH28" s="2" t="inlineStr"/>
+      <c r="AI28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>2030009832</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>MANUT PREV NOTIFIER GT 11
+--&gt; EFETUAR PREVENTIVA CONFORME PROCEDIMENTO PADRÃO
+ACIONADORES, SIRENES, PRESSOSTATOS, SOLENÓIDES E BOTOEIRAS</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>20
+30</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>19.965.904 salva</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>Preventiva</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>13, 39,68</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>SIM
+DILÚVIO</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>X7L1
+RSMU
+FIUU
+FIV0</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr"/>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>5301507</v>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="X29" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y29" s="2" t="inlineStr"/>
+      <c r="Z29" s="2" t="inlineStr"/>
+      <c r="AA29" s="2" t="inlineStr"/>
+      <c r="AB29" s="2" t="inlineStr"/>
+      <c r="AC29" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD29" s="2" t="inlineStr"/>
+      <c r="AE29" s="2" t="inlineStr"/>
+      <c r="AF29" s="2" t="inlineStr"/>
+      <c r="AG29" s="2" t="inlineStr"/>
+      <c r="AH29" s="2" t="inlineStr"/>
+      <c r="AI29" s="2" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>2030133471</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>NPI MPREV ESTACOES HONEYWELL
+- EFETUAR PREVENTIVA CONFORME PROCEDIMENTO PADRÃO"</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>10
 20
@@ -2402,55 +4480,64 @@
 80
 90
 100
-130</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>19.938.682 salva</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+110
+120
+130
+140
+150
+160
+170
+180
+190
+200</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>19.965.650 salva</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>Rotina</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>Corretiva</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>Preventiva</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
         <is>
           <t>13, 39</t>
         </is>
       </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
         <is>
           <t>X7L1
 RSMU
@@ -2458,141 +4545,134 @@
 FIV0</t>
         </is>
       </c>
-      <c r="Q14" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr"/>
-      <c r="T14" s="2" t="inlineStr">
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr"/>
+      <c r="T30" s="2" t="inlineStr">
         <is>
           <t>A Frio</t>
         </is>
       </c>
-      <c r="U14" s="2" t="inlineStr">
+      <c r="U30" s="2" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="V14" s="2" t="n">
-        <v>5280927</v>
-      </c>
-      <c r="W14" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X14" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y14" s="2" t="inlineStr"/>
-      <c r="Z14" s="2" t="inlineStr"/>
-      <c r="AA14" s="2" t="inlineStr"/>
-      <c r="AB14" s="2" t="inlineStr"/>
-      <c r="AC14" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD14" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE14" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF14" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG14" s="2" t="inlineStr"/>
-      <c r="AH14" s="2" t="inlineStr"/>
-      <c r="AI14" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>5309994
+AR FORA DA PASTA</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X30" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y30" s="2" t="inlineStr"/>
+      <c r="Z30" s="2" t="inlineStr"/>
+      <c r="AA30" s="2" t="inlineStr"/>
+      <c r="AB30" s="2" t="inlineStr"/>
+      <c r="AC30" s="2" t="inlineStr"/>
+      <c r="AD30" s="2" t="inlineStr"/>
+      <c r="AE30" s="2" t="inlineStr"/>
+      <c r="AF30" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG30" s="2" t="inlineStr"/>
+      <c r="AH30" s="2" t="inlineStr"/>
+      <c r="AI30" s="2" t="inlineStr"/>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>INSTRUMENTAÇÃO</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>Emitir</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>2029994049</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>DCS SUL-ALARME DE TEMPERATURA NOS PAINÉIS
-ATUADO ALARMES DE ALTA TEMPERATURA NOS PAINÉIS 19CBA DO DCS-SUL.
-NESCESSARIO VERIFICAR E NORMALIZAR.</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n">
+      <c r="D31" s="2" t="n">
+        <v>2029893155</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>GT21 (21SGJ01 READEQUAÇÃO SKID DE CILINDROS CO2) (APOIO INSTRUMENTAÇÃO)
+- DESCONEXÃO DE CILINDROS</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>19.965.669 salva</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>Rotina</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="K31" s="2" t="inlineStr">
         <is>
           <t>Corretiva</t>
         </is>
       </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>13, 39</t>
-        </is>
-      </c>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P15" s="2" t="inlineStr">
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>13,39,46</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>SIM
+CO2</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
         <is>
           <t>X7L1
 RSMU
@@ -2600,134 +4680,657 @@
 FIV0</t>
         </is>
       </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="S15" s="2" t="inlineStr"/>
-      <c r="T15" s="2" t="inlineStr">
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr"/>
+      <c r="T31" s="2" t="inlineStr">
         <is>
           <t>A Frio</t>
         </is>
       </c>
-      <c r="U15" s="2" t="inlineStr">
+      <c r="U31" s="2" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="V15" s="2" t="n">
-        <v>5212999</v>
-      </c>
-      <c r="W15" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X15" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y15" s="2" t="inlineStr"/>
-      <c r="Z15" s="2" t="inlineStr"/>
-      <c r="AA15" s="2" t="inlineStr"/>
-      <c r="AB15" s="2" t="inlineStr"/>
-      <c r="AC15" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD15" s="2" t="inlineStr"/>
-      <c r="AE15" s="2" t="inlineStr"/>
-      <c r="AF15" s="2" t="inlineStr"/>
-      <c r="AG15" s="2" t="inlineStr"/>
-      <c r="AH15" s="2" t="inlineStr"/>
-      <c r="AI15" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="n">
+        <v>5274619</v>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="X31" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y31" s="2" t="inlineStr"/>
+      <c r="Z31" s="2" t="inlineStr"/>
+      <c r="AA31" s="2" t="inlineStr"/>
+      <c r="AB31" s="2" t="inlineStr"/>
+      <c r="AC31" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD31" s="2" t="inlineStr"/>
+      <c r="AE31" s="2" t="inlineStr"/>
+      <c r="AF31" s="2" t="inlineStr"/>
+      <c r="AG31" s="2" t="inlineStr"/>
+      <c r="AH31" s="2" t="inlineStr"/>
+      <c r="AI31" s="2" t="inlineStr"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>2029893155</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>GT21 (21SGJ01 READEQUAÇÃO SKID DE CILINDROS CO2) (APOIO INSTRUMENTAÇÃO)
+- CONEXÃO DE CILINDROS</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>19.965.678 salva</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>13,39,46</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>SIM
+CO2</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>X7L1
+RSMU
+FIUU
+FIV0</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr"/>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="n">
+        <v>5274619</v>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="X32" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y32" s="2" t="inlineStr"/>
+      <c r="Z32" s="2" t="inlineStr"/>
+      <c r="AA32" s="2" t="inlineStr"/>
+      <c r="AB32" s="2" t="inlineStr"/>
+      <c r="AC32" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD32" s="2" t="inlineStr"/>
+      <c r="AE32" s="2" t="inlineStr"/>
+      <c r="AF32" s="2" t="inlineStr"/>
+      <c r="AG32" s="2" t="inlineStr"/>
+      <c r="AH32" s="2" t="inlineStr"/>
+      <c r="AI32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>2029893158</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>GT12 (12SGJ01 READEQUAÇÃO SKID DE CILINDROS CO2) (APOIO INSTRUMENTAÇÃO)
+- DESCONEXÃO DE CILINDROS</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>19.965.702 salva</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>13,39,46</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>SIM
+CO2</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>X7L1
+RSMU
+FIUU
+FIV0</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr"/>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="n">
+        <v>5219644</v>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="X33" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y33" s="2" t="inlineStr"/>
+      <c r="Z33" s="2" t="inlineStr"/>
+      <c r="AA33" s="2" t="inlineStr"/>
+      <c r="AB33" s="2" t="inlineStr"/>
+      <c r="AC33" s="2" t="inlineStr"/>
+      <c r="AD33" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE33" s="2" t="inlineStr"/>
+      <c r="AF33" s="2" t="inlineStr"/>
+      <c r="AG33" s="2" t="inlineStr"/>
+      <c r="AH33" s="2" t="inlineStr"/>
+      <c r="AI33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>2029893158</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>GT12 (12SGJ01 READEQUAÇÃO SKID DE CILINDROS CO2) (APOIO INSTRUMENTAÇÃO)
+- CONEXÃO DE CILINDROS</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>19.965.721 salva</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>13,39,46</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>SIM
+CO2</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>X7L1
+RSMU
+FIUU
+FIV0</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr"/>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>5219644</v>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="X34" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y34" s="2" t="inlineStr"/>
+      <c r="Z34" s="2" t="inlineStr"/>
+      <c r="AA34" s="2" t="inlineStr"/>
+      <c r="AB34" s="2" t="inlineStr"/>
+      <c r="AC34" s="2" t="inlineStr"/>
+      <c r="AD34" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE34" s="2" t="inlineStr"/>
+      <c r="AF34" s="2" t="inlineStr"/>
+      <c r="AG34" s="2" t="inlineStr"/>
+      <c r="AH34" s="2" t="inlineStr"/>
+      <c r="AI34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>INSTRUMENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>2030313171</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>SALA CONTROLE - REPARO/REMANEJO FIBRA ÓTICA
+O CABO ÓTICO COM 6 PARES DE FIBRAS É CONECTADO NO GABINETE 19CWP03 DA SALA DE CONTROLE E SE ESTENDE ATÉ O PRÉDIO VISION. ATUALMENTE, AS FIBRAS ESTÃO ROMPIDAS NO ACOPLADOR ÓTICO. O TRABALHO SERÁ REALIZADO COM O APOIO DA TIC. O CABO ÓTICO PRECISA SER CORTADO E REMANEJADO PARA UMA DAS BANDEJAS LIVRES DO DIO. ALÉM DISSO, O PIG TAIL DEVERÁ SER REMANEJADO E AS CONEXÕES NESTA BANDEJA REFEITAS. 14/04/2025</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>19.973.901 salva</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>13, 39</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>ZMQY</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr"/>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="n">
+        <v>5282313</v>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X35" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y35" s="2" t="inlineStr"/>
+      <c r="Z35" s="2" t="inlineStr"/>
+      <c r="AA35" s="2" t="inlineStr"/>
+      <c r="AB35" s="2" t="inlineStr"/>
+      <c r="AC35" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD35" s="2" t="inlineStr"/>
+      <c r="AE35" s="2" t="inlineStr"/>
+      <c r="AF35" s="2" t="inlineStr"/>
+      <c r="AG35" s="2" t="inlineStr"/>
+      <c r="AH35" s="2" t="inlineStr"/>
+      <c r="AI35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>MECÂNICA</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>Emitir</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>G&amp;E/UN-TERM/UTE-NPI/MAN</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>2030187190</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OFI-11MBV21AP001 MANUTENÇÃO PREVENTIVA
-PRÉDIO DA MANUTENÇÃO (11MBV21AP001 MPREV BOMBA RESERVA)
-REALIZAR A MANUTENÇÃO PREVENTIVA EM OFICINA, A FIM DE DEIXAR A BOMBA PRÓPIA PARA USO, CASO HAJA NECESSIDADE DE UMA TROCA OU QUEBRA FUTURO.
- - USO DE PARAFUSADEIRA
- - USO DE FERRAMENTAS MANUAIS
-</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>2029896935</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>EATON - BOP 19BRV10 (MANUTENÇÃO PREVENTIVA GERADOR A DIESEL EATON)</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>20
+50
+90</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>19.965.732 salva</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
         <is>
           <t>Rotina</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="K36" s="2" t="inlineStr">
         <is>
           <t>Preventiva</t>
         </is>
       </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>13,14,19,21,47</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>13,47,51</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
         <is>
           <t>TQ24
 E0E3
@@ -2735,236 +5338,908 @@
 CK13</t>
         </is>
       </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr"/>
-      <c r="T16" s="2" t="inlineStr">
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr"/>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>5310072
+AR FORA DA PASTA</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X36" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y36" s="2" t="inlineStr"/>
+      <c r="Z36" s="2" t="inlineStr"/>
+      <c r="AA36" s="2" t="inlineStr"/>
+      <c r="AB36" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC36" s="2" t="inlineStr"/>
+      <c r="AD36" s="2" t="inlineStr"/>
+      <c r="AE36" s="2" t="inlineStr"/>
+      <c r="AF36" s="2" t="inlineStr"/>
+      <c r="AG36" s="2" t="inlineStr"/>
+      <c r="AH36" s="2" t="inlineStr"/>
+      <c r="AI36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>MECÂNICA</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>2029897164</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>GT11 - MANUTENÇÃO SEMESTRAL MOTOR
+GERADOR  DIESEL EMERGENCIA 11BRV10 FMEA</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>19.965.913 salva</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>Preventiva</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>13,47,51</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>TQ24
+E0E3
+F2IF
+CK13
+TQ27</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr"/>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+5296631
+AR FORA DA PASTA</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X37" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y37" s="2" t="inlineStr"/>
+      <c r="Z37" s="2" t="inlineStr"/>
+      <c r="AA37" s="2" t="inlineStr"/>
+      <c r="AB37" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC37" s="2" t="inlineStr"/>
+      <c r="AD37" s="2" t="inlineStr"/>
+      <c r="AE37" s="2" t="inlineStr"/>
+      <c r="AF37" s="2" t="inlineStr"/>
+      <c r="AG37" s="2" t="inlineStr"/>
+      <c r="AH37" s="2" t="inlineStr"/>
+      <c r="AI37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>MECÂNICA</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>2030128447</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>S.C.I (MPREV TRIMESTRAL BOMBA DIESEL B-5423.003 -
+ANÁLISE DE VIBRAÇÃO)</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>19.965.921 salva</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>Preventiva</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>13, 48</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">47092300 
+70400640
+71405067
+46752670 </t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr"/>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="n">
+        <v>5296644</v>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X38" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y38" s="2" t="inlineStr"/>
+      <c r="Z38" s="2" t="inlineStr"/>
+      <c r="AA38" s="2" t="inlineStr"/>
+      <c r="AB38" s="2" t="inlineStr"/>
+      <c r="AC38" s="2" t="inlineStr"/>
+      <c r="AD38" s="2" t="inlineStr"/>
+      <c r="AE38" s="2" t="inlineStr"/>
+      <c r="AF38" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG38" s="2" t="inlineStr"/>
+      <c r="AH38" s="2" t="inlineStr"/>
+      <c r="AI38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>MECÂNICA</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>2029893155</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>GT21-READEQUAÇÃO SKID DE CILINDROS CO2 (21SGJ01 - READEQUAÇÃO DO SKID DE CILINDROS) (APOIO INSTRUMENTAÇÃO) 
+ - REALIZAR A READEQUAÇÃO DO SKID DE CILINDROS CO2
+ - USO DE FERRAMENTAS MANUAIS
+ - USO DE FURADEIRA
+ - USO DE LIXADEIRA</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>19.965.763 salva</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>13,14,15,19,46,47</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>SIM
+C02</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>TQ24
+E0E3
+F2IF
+CK13</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr"/>
+      <c r="T39" s="2" t="inlineStr">
         <is>
           <t>A Quente</t>
         </is>
       </c>
-      <c r="U16" s="2" t="inlineStr">
+      <c r="U39" s="2" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="V16" s="2" t="n">
-        <v>5303097</v>
-      </c>
-      <c r="W16" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X16" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y16" s="2" t="inlineStr"/>
-      <c r="Z16" s="2" t="inlineStr"/>
-      <c r="AA16" s="2" t="inlineStr"/>
-      <c r="AB16" s="2" t="inlineStr"/>
-      <c r="AC16" s="2" t="inlineStr"/>
-      <c r="AD16" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE16" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF16" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG16" s="2" t="inlineStr"/>
-      <c r="AH16" s="2" t="inlineStr"/>
-      <c r="AI16" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="n">
+        <v>5274619</v>
+      </c>
+      <c r="W39" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="X39" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y39" s="2" t="inlineStr"/>
+      <c r="Z39" s="2" t="inlineStr"/>
+      <c r="AA39" s="2" t="inlineStr"/>
+      <c r="AB39" s="2" t="inlineStr"/>
+      <c r="AC39" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD39" s="2" t="inlineStr"/>
+      <c r="AE39" s="2" t="inlineStr"/>
+      <c r="AF39" s="2" t="inlineStr"/>
+      <c r="AG39" s="2" t="inlineStr"/>
+      <c r="AH39" s="2" t="inlineStr"/>
+      <c r="AI39" s="2" t="inlineStr"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ISOLAMENTO </t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>MECÂNICA</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>Emitir</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>2029949416</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>AC VISION readequar ar-condicionado
-- SERÁ REALIZADO UMA MODIFICAÇÃO DO AR-CONDICIONADO SPLIT DO LADO DOS PAINEIS DA CCC, ONDE O AR SERÁ DIRECIONADO PARA RESFRIAR INTERNAMENTE OS PAINEIS
-- VISION- READEQUAR E CONFECCIONAR DUTO DE REFRIGERAÇÃO DIRETO PARA O PAINEIS DA CCC.</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="D40" s="2" t="n">
+        <v>2029893158</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>GT12-READEQUAÇÃO SKID DE CILINDROS CO² (12SGJ01 - READEQUAÇÃO DO SKID DE CILINDROS) (APOIO INSTRUMENTAÇÃO)
+ - REALIZAR A READEQUAÇÃO DO SKID DE CILINDROS CO²
+ - USO DE FERRAMENTAS MANUAIS
+ - USO DE FURADEIRA
+ - USO DE LIXADEIRA</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>19.965.785 salva</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>13,14,15,19,46,47</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>SIM
+C02</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>TQ24
+E0E3
+F2IF
+CK13</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr"/>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>A Quente</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="n">
+        <v>5219644</v>
+      </c>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="X40" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y40" s="2" t="inlineStr"/>
+      <c r="Z40" s="2" t="inlineStr"/>
+      <c r="AA40" s="2" t="inlineStr"/>
+      <c r="AB40" s="2" t="inlineStr"/>
+      <c r="AC40" s="2" t="inlineStr"/>
+      <c r="AD40" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE40" s="2" t="inlineStr"/>
+      <c r="AF40" s="2" t="inlineStr"/>
+      <c r="AG40" s="2" t="inlineStr"/>
+      <c r="AH40" s="2" t="inlineStr"/>
+      <c r="AI40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>PINTURA</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>2030398089</v>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>GT11-TRATAMENTO DE SUPERFICE E PINTURA PAREDE EXTERNA BAIA TRAF 11BAT10,11BBT20,11BBT10.
+- USO DE ESCADA TIPO A";
+- LIXAMENTO MANUAL;
+- TINTA LATEX;
+- USO DE EXTENSOR DE FIBRA;
+- ROLO LÃO DE CARNEIRO(APLICAÇÃO DE TINTA PAREDE);</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
         <is>
           <t>Rotina</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K41" s="2" t="inlineStr">
         <is>
           <t>Corretiva</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>13,14,15,19,68</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>43195216
-42453814</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>A Quente</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="n">
-        <v>5271876</v>
-      </c>
-      <c r="W17" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X17" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y17" s="2" t="inlineStr">
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>13,29,30</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>70710710
+70119201
+42453814
+72333121
+71250274</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr"/>
+      <c r="S41" s="2" t="inlineStr"/>
+      <c r="T41" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="Z17" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA17" s="2" t="inlineStr"/>
-      <c r="AB17" s="2" t="inlineStr"/>
-      <c r="AC17" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD17" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE17" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF17" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG17" s="2" t="inlineStr"/>
-      <c r="AH17" s="2" t="inlineStr"/>
-      <c r="AI17" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="n">
+        <v>5299387</v>
+      </c>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X41" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y41" s="2" t="inlineStr"/>
+      <c r="Z41" s="2" t="inlineStr"/>
+      <c r="AA41" s="2" t="inlineStr"/>
+      <c r="AB41" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC41" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD41" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE41" s="2" t="inlineStr"/>
+      <c r="AF41" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG41" s="2" t="inlineStr"/>
+      <c r="AH41" s="2" t="inlineStr"/>
+      <c r="AI41" s="2" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>PINTURA</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Elaborar</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D42" s="2" t="n">
+        <v>2030398088</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>GT12-TRATAMENTO DE SUPERFICE E PINTURA PAREDE EXTERNA BAIA TRAF 12BAT10,12BBT20,12BBT10.
+- USO DE ESCADA TIPO A";
+- LIXAMENTO MANUAL;
+- TINTA LATEX;
+- USO DE EXTENSOR DE FIBRA;
+- ROLO LÃO DE CARNEIRO(APLICAÇÃO DE TINTA PAREDE);</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>13,29,30</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>70710710
+70119201
+42453814
+72333121
+71250274</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="n">
+        <v>5299369</v>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X42" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y42" s="2" t="inlineStr"/>
+      <c r="Z42" s="2" t="inlineStr"/>
+      <c r="AA42" s="2" t="inlineStr"/>
+      <c r="AB42" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC42" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD42" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE42" s="2" t="inlineStr"/>
+      <c r="AF42" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG42" s="2" t="inlineStr"/>
+      <c r="AH42" s="2" t="inlineStr"/>
+      <c r="AI42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>PINTURA</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
         <v>2030410838</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>GT11-MÓD AA/BB/CC-TRATAMENTO DE SUPERFICIE PINT LINHA DE VIDA.
 - USO DE MASCARÁ PFF2,
@@ -2978,55 +6253,55 @@
 - SERÃO UTILIZADAS FERRAMENTAS MANUAIS.</t>
         </is>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F43" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
         <is>
           <t>Rotina</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr">
+      <c r="K43" s="2" t="inlineStr">
         <is>
           <t>Corretiva</t>
         </is>
       </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
         <is>
           <t>11,13,14,15,17,19,29,30,68</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P18" s="2" t="inlineStr">
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
         <is>
           <t>70710710
 70119201
@@ -3035,91 +6310,86 @@
 71250274</t>
         </is>
       </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="S18" s="2" t="inlineStr">
+      <c r="S43" s="2" t="inlineStr">
         <is>
           <t>PTA</t>
         </is>
       </c>
-      <c r="T18" s="2" t="inlineStr">
+      <c r="T43" s="2" t="inlineStr">
         <is>
           <t>A Quente</t>
         </is>
       </c>
-      <c r="U18" s="2" t="inlineStr">
+      <c r="U43" s="2" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="V18" s="2" t="n">
-        <v>5303898</v>
-      </c>
-      <c r="W18" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X18" s="2" t="inlineStr"/>
-      <c r="Y18" s="2" t="inlineStr"/>
-      <c r="Z18" s="2" t="inlineStr"/>
-      <c r="AA18" s="2" t="inlineStr"/>
-      <c r="AB18" s="2" t="inlineStr"/>
-      <c r="AC18" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD18" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE18" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF18" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG18" s="2" t="inlineStr"/>
-      <c r="AH18" s="2" t="inlineStr"/>
-      <c r="AI18" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="n">
+        <v>5303870</v>
+      </c>
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X43" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y43" s="2" t="inlineStr"/>
+      <c r="Z43" s="2" t="inlineStr"/>
+      <c r="AA43" s="2" t="inlineStr"/>
+      <c r="AB43" s="2" t="inlineStr"/>
+      <c r="AC43" s="2" t="inlineStr"/>
+      <c r="AD43" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE43" s="2" t="inlineStr"/>
+      <c r="AF43" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG43" s="2" t="inlineStr"/>
+      <c r="AH43" s="2" t="inlineStr"/>
+      <c r="AI43" s="2" t="inlineStr"/>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>PINTURA</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Elaborar</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D44" s="2" t="n">
         <v>2030410839</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>GT12-MÓD AA/BB/CC-TRATAMENTO DE SUPERFICIE PINT LINHA DE VIDA.
-- TRABALHO EM ALTURA;
 - USO DE MASCARÁ PFF2,
 - USO DE MASCARÁ ORGANICA;
 - APOIO DE PTA;
@@ -3131,55 +6401,55 @@
 - SERÃO UTILIZADAS FERRAMENTAS MANUAIS.</t>
         </is>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F44" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>Rotina</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
+      <c r="K44" s="2" t="inlineStr">
         <is>
           <t>Corretiva</t>
         </is>
       </c>
-      <c r="L19" s="2" t="inlineStr">
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
         <is>
           <t>11,13,14,15,17,19,29,30,68</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
         <is>
           <t>70710710
 70119201
@@ -3188,147 +6458,138 @@
 71250274</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="S19" s="2" t="inlineStr">
+      <c r="S44" s="2" t="inlineStr">
         <is>
           <t>PTA</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr">
+      <c r="T44" s="2" t="inlineStr">
         <is>
           <t>A Quente</t>
         </is>
       </c>
-      <c r="U19" s="2" t="inlineStr">
+      <c r="U44" s="2" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V44" s="2" t="n">
         <v>5303898</v>
       </c>
-      <c r="W19" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X19" s="2" t="inlineStr"/>
-      <c r="Y19" s="2" t="inlineStr"/>
-      <c r="Z19" s="2" t="inlineStr"/>
-      <c r="AA19" s="2" t="inlineStr"/>
-      <c r="AB19" s="2" t="inlineStr"/>
-      <c r="AC19" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD19" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE19" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF19" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG19" s="2" t="inlineStr"/>
-      <c r="AH19" s="2" t="inlineStr"/>
-      <c r="AI19" s="2" t="inlineStr"/>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X44" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y44" s="2" t="inlineStr"/>
+      <c r="Z44" s="2" t="inlineStr"/>
+      <c r="AA44" s="2" t="inlineStr"/>
+      <c r="AB44" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC44" s="2" t="inlineStr"/>
+      <c r="AD44" s="2" t="inlineStr"/>
+      <c r="AE44" s="2" t="inlineStr"/>
+      <c r="AF44" s="2" t="inlineStr"/>
+      <c r="AG44" s="2" t="inlineStr"/>
+      <c r="AH44" s="2" t="inlineStr"/>
+      <c r="AI44" s="2" t="inlineStr"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>PINTURA</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>Emitir</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>2030398088</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-GT12-TRATAMENTO DE SUPERFICE E PINTURA PAREDE EXTERNA/INTERNA BAIA TRAF 12BAT10,12BBT20,12BBT10.
+      <c r="D45" s="2" t="n">
+        <v>2030409834</v>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>GT21-TRATAMENTO DE SUPERFICE E PINTURA PAREDE EXTERNA BAIA  TRAF 21BAT10/21BBT20.
 - USO DE ESCADA TIPO A";
 - LIXAMENTO MANUAL;
 - TINTA LATEX;
 - USO DE EXTENSOR DE FIBRA;
-- ROLO LÃO DE CARNEIRO(APLICAÇÃO DE TINTA PAREDE);</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n">
+- ROLO LÃO DE CARNEIRO(APLICAÇÃO DE TINTA PAREDE)</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>Reemitir</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
         <is>
           <t>Rotina</t>
         </is>
       </c>
-      <c r="K20" s="2" t="inlineStr">
+      <c r="K45" s="2" t="inlineStr">
         <is>
           <t>Corretiva</t>
         </is>
       </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>13,29,30</t>
-        </is>
-      </c>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P20" s="2" t="inlineStr">
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>13,29,30,68</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
         <is>
           <t>70710710
 70119201
@@ -3337,1087 +6598,1158 @@
 71250274</t>
         </is>
       </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="inlineStr">
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr"/>
+      <c r="S45" s="2" t="inlineStr"/>
+      <c r="T45" s="2" t="inlineStr">
         <is>
           <t>A Frio</t>
         </is>
       </c>
-      <c r="U20" s="2" t="inlineStr">
+      <c r="U45" s="2" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="V20" s="2" t="n">
-        <v>5299369</v>
-      </c>
-      <c r="W20" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X20" s="2" t="inlineStr"/>
-      <c r="Y20" s="2" t="inlineStr"/>
-      <c r="Z20" s="2" t="inlineStr"/>
-      <c r="AA20" s="2" t="inlineStr"/>
-      <c r="AB20" s="2" t="inlineStr"/>
-      <c r="AC20" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD20" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE20" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF20" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG20" s="2" t="inlineStr"/>
-      <c r="AH20" s="2" t="inlineStr"/>
-      <c r="AI20" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+5309971
+AR FORA DA PASTA</t>
+        </is>
+      </c>
+      <c r="W45" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X45" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y45" s="2" t="inlineStr"/>
+      <c r="Z45" s="2" t="inlineStr"/>
+      <c r="AA45" s="2" t="inlineStr"/>
+      <c r="AB45" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC45" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD45" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE45" s="2" t="inlineStr"/>
+      <c r="AF45" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG45" s="2" t="inlineStr"/>
+      <c r="AH45" s="2" t="inlineStr"/>
+      <c r="AI45" s="2" t="inlineStr"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>PINTURA</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>ZELADORIA</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Emitida</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/MAN</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>2030404451</v>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>NPI - OP
+INSPEÇÃO NA CAIXA DE PASSAGEM NA ÁREA ADM</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>OM</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>13,14,15,19</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>46751808
+70196255</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>A Quente</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>OM</t>
+        </is>
+      </c>
+      <c r="W46" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X46" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y46" s="2" t="inlineStr"/>
+      <c r="Z46" s="2" t="inlineStr"/>
+      <c r="AA46" s="2" t="inlineStr"/>
+      <c r="AB46" s="2" t="inlineStr"/>
+      <c r="AC46" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD46" s="2" t="inlineStr"/>
+      <c r="AE46" s="2" t="inlineStr"/>
+      <c r="AF46" s="2" t="inlineStr"/>
+      <c r="AG46" s="2" t="inlineStr"/>
+      <c r="AH46" s="2" t="inlineStr"/>
+      <c r="AI46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>ZELADORIA</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>Emitir</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>2029800348</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-GT22-TRATAMENTO DE SUPERFICE E PINTURA PAREDE EXTERNA BAIA TRAFORMADOR 22BAT10.
-- USO DE ESCADA TIPO A";
-- LIXAMENTO MANUAL;
-- TINTA LATEX;
-- USO DE EXTENSOR DE FIBRA;
-- ROLO LÃO DE CARNEIRO(APLICAÇÃO DE TINTA PAREDE);</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>Rotina</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>Corretiva</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>13,29,30</t>
-        </is>
-      </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>70710710
-70119201
-42453814
-72333121
-71250274</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="inlineStr">
-        <is>
-          <t>A Frio</t>
-        </is>
-      </c>
-      <c r="U21" s="2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="V21" s="2" t="n">
-        <v>5299373</v>
-      </c>
-      <c r="W21" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X21" s="2" t="inlineStr"/>
-      <c r="Y21" s="2" t="inlineStr"/>
-      <c r="Z21" s="2" t="inlineStr"/>
-      <c r="AA21" s="2" t="inlineStr"/>
-      <c r="AB21" s="2" t="inlineStr"/>
-      <c r="AC21" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD21" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE21" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF21" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG21" s="2" t="inlineStr"/>
-      <c r="AH21" s="2" t="inlineStr"/>
-      <c r="AI21" s="2" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>PINTURA</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Emitir</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>2030398089</v>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-GT11-TRATAMENTO DE SUPERFICE E PINTURA PAREDE EXTERNA/INTERNA BAIA TRAF 11BAT10,11BBT20,11BBT10.
-- USO DE ESCADA TIPO A";
-- LIXAMENTO MANUAL;
-- TINTA LATEX;
-- USO DE EXTENSOR DE FIBRA;
-- ROLO LÃO DE CARNEIRO(APLICAÇÃO DE TINTA PAREDE);</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>Rotina</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>Corretiva</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>13,29,30</t>
-        </is>
-      </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>70710710
-70119201
-42453814
-72333121
-71250274</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr"/>
-      <c r="S22" s="2" t="inlineStr"/>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>A Frio</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="V22" s="2" t="n">
-        <v>5299387</v>
-      </c>
-      <c r="W22" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X22" s="2" t="inlineStr"/>
-      <c r="Y22" s="2" t="inlineStr"/>
-      <c r="Z22" s="2" t="inlineStr"/>
-      <c r="AA22" s="2" t="inlineStr"/>
-      <c r="AB22" s="2" t="inlineStr"/>
-      <c r="AC22" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD22" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE22" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF22" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG22" s="2" t="inlineStr"/>
-      <c r="AH22" s="2" t="inlineStr"/>
-      <c r="AI22" s="2" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>PINTURA</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Emitida</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>2030048081</v>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NPI-SISTEMA SCI- TRATAMENTO DE SUPERFICIE/PINTURA DAS INDENTIFICAÇÕES DE HIDRANTES SCI;
-- TRATAMENTO DE SUPERFICIE LIXAMENTO MAUAL;
-- PINTURAL MANUAL(PINCEL E ROLINHO;
-- SERÃO UTILIZADAS FERRAMENTAS MANUAIS.
-</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>PTT</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>Rotina</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>Corretiva</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>13,29,30</t>
-        </is>
-      </c>
-      <c r="O23" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P23" s="2" t="inlineStr">
-        <is>
-          <t>70710710
-70119201
-42453814
-72333121
-71250274</t>
-        </is>
-      </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="inlineStr"/>
-      <c r="T23" s="2" t="inlineStr">
-        <is>
-          <t>A Frio</t>
-        </is>
-      </c>
-      <c r="U23" s="2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="V23" s="2" t="n">
-        <v>5292507</v>
-      </c>
-      <c r="W23" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X23" s="2" t="inlineStr"/>
-      <c r="Y23" s="2" t="inlineStr"/>
-      <c r="Z23" s="2" t="inlineStr"/>
-      <c r="AA23" s="2" t="inlineStr"/>
-      <c r="AB23" s="2" t="inlineStr"/>
-      <c r="AC23" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD23" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE23" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF23" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG23" s="2" t="inlineStr"/>
-      <c r="AH23" s="2" t="inlineStr"/>
-      <c r="AI23" s="2" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>PINTURA</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Elaborar</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>2029429023</v>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>GT21- TRATAMENTO DE SUPERFICIE PINTURA CX DE PASSAGEM CABO.          
-- USO DE LIXADEIRA PNEUMATICA;
-- TRABALHO EM ALTURA;
-- RISCO DE QUEDA;
-- USO DE RESINA POLIESTER;
-- USO DE MANTA LÃ DE VIDRO;
-- USO TINTA P.U(TINTA INDUSTRIAL);
-- USO DE FERRAMENTAS MANUAIS;</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>19.938.691 salva</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>Rotina</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>Corretiva</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>11,13,14,15,17,19,29,30,68</t>
-        </is>
-      </c>
-      <c r="O24" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>70710710
-70119201
-42453814
-72333121
-71250274</t>
-        </is>
-      </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>PTA</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>A Quente</t>
-        </is>
-      </c>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="V24" s="2" t="n">
-        <v>5292454</v>
-      </c>
-      <c r="W24" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X24" s="2" t="inlineStr"/>
-      <c r="Y24" s="2" t="inlineStr"/>
-      <c r="Z24" s="2" t="inlineStr"/>
-      <c r="AA24" s="2" t="inlineStr"/>
-      <c r="AB24" s="2" t="inlineStr"/>
-      <c r="AC24" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD24" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE24" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF24" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG24" s="2" t="inlineStr"/>
-      <c r="AH24" s="2" t="inlineStr"/>
-      <c r="AI24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>ZELADORIA</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>Emitir</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
+      <c r="D47" s="2" t="n">
         <v>2030404451</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr">
         <is>
           <t>NPI - OP
 INSPEÇÃO NA CAIXA DE PASSAGEM NA ÁREA DAS GT'S.</t>
         </is>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F47" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="G47" s="3" t="inlineStr">
         <is>
           <t>não</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
+      <c r="H47" s="2" t="inlineStr">
         <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
         <is>
           <t>Rotina</t>
         </is>
       </c>
-      <c r="K25" s="2" t="inlineStr">
+      <c r="K47" s="2" t="inlineStr">
         <is>
           <t>Corretiva</t>
         </is>
       </c>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="L47" s="2" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>1,13,14,15,19</t>
-        </is>
-      </c>
-      <c r="O25" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P25" s="2" t="inlineStr">
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>13,14,15,19</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
         <is>
           <t>46751808
 70196255</t>
         </is>
       </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="inlineStr">
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="inlineStr">
         <is>
           <t>A Quente</t>
         </is>
       </c>
-      <c r="U25" s="2" t="inlineStr">
+      <c r="U47" s="2" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="V25" s="2" t="inlineStr">
+      <c r="V47" s="2" t="inlineStr">
         <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="W25" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X25" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y25" s="2" t="inlineStr"/>
-      <c r="Z25" s="2" t="inlineStr"/>
-      <c r="AA25" s="2" t="inlineStr"/>
-      <c r="AB25" s="2" t="inlineStr"/>
-      <c r="AC25" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD25" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE25" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF25" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG25" s="2" t="inlineStr"/>
-      <c r="AH25" s="2" t="inlineStr"/>
-      <c r="AI25" s="2" t="inlineStr"/>
+      <c r="W47" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X47" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y47" s="2" t="inlineStr"/>
+      <c r="Z47" s="2" t="inlineStr"/>
+      <c r="AA47" s="2" t="inlineStr"/>
+      <c r="AB47" s="2" t="inlineStr"/>
+      <c r="AC47" s="2" t="inlineStr"/>
+      <c r="AD47" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE47" s="2" t="inlineStr"/>
+      <c r="AF47" s="2" t="inlineStr"/>
+      <c r="AG47" s="2" t="inlineStr"/>
+      <c r="AH47" s="2" t="inlineStr"/>
+      <c r="AI47" s="2" t="inlineStr"/>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>ZELADORIA/  JARDINAGEM</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/MAN</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>2029234712</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NPI -  ADM
+MANUTENÇÃO DO BEIRA CANAL/ JARDINS EXISTENTES E PLANTAS DAS SALAS ADM 
+(COM UTILIZAÇÃO DE FERRAMENTAS MANUAIS) </t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>PTT</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>13,14,19,62,63,64,68</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">71350931
+46753040
+</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S48" s="2" t="inlineStr"/>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>A Quente</t>
+        </is>
+      </c>
+      <c r="U48" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+5125418</t>
+        </is>
+      </c>
+      <c r="W48" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X48" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y48" s="2" t="inlineStr"/>
+      <c r="Z48" s="2" t="inlineStr"/>
+      <c r="AA48" s="2" t="inlineStr"/>
+      <c r="AB48" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC48" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD48" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE48" s="2" t="inlineStr"/>
+      <c r="AF48" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG48" s="2" t="inlineStr"/>
+      <c r="AH48" s="2" t="inlineStr"/>
+      <c r="AI48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>ZELADORIA/ CAPINA</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>Emitir</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>2029234712</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>2030210088</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>NPI - OP
-CAPINA QUIMICA/MANUAL NA ÁREA DOS TRAFOS DAS GTS 11,12,21,22</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>40
-60</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
+CAPINA QUIMICA/MANUAL NA ÁREA DOS TRAFOS DOS COMPRESSORES</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G49" s="3" t="inlineStr">
         <is>
           <t>não</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="H49" s="2" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
         <is>
           <t>Rotina</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="K49" s="2" t="inlineStr">
         <is>
           <t>Corretiva</t>
         </is>
       </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>1,13,22,24,62</t>
-        </is>
-      </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>13,22,24,62</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
         <is>
           <t>71250305
 71350931
 70196255</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="inlineStr">
+      <c r="Q49" s="2" t="inlineStr">
         <is>
           <t>SIM</t>
         </is>
       </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr">
+      <c r="R49" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S49" s="2" t="inlineStr"/>
+      <c r="T49" s="2" t="inlineStr">
         <is>
           <t>A Frio</t>
         </is>
       </c>
-      <c r="U26" s="2" t="inlineStr">
+      <c r="U49" s="2" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="V26" s="2" t="n">
-        <v>5125418</v>
-      </c>
-      <c r="W26" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X26" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y26" s="2" t="inlineStr"/>
-      <c r="Z26" s="2" t="inlineStr"/>
-      <c r="AA26" s="2" t="inlineStr"/>
-      <c r="AB26" s="2" t="inlineStr"/>
-      <c r="AC26" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD26" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE26" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF26" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG26" s="2" t="inlineStr"/>
-      <c r="AH26" s="2" t="inlineStr"/>
-      <c r="AI26" s="2" t="inlineStr"/>
+      <c r="V49" s="2" t="n">
+        <v>5297164</v>
+      </c>
+      <c r="W49" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X49" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y49" s="2" t="inlineStr"/>
+      <c r="Z49" s="2" t="inlineStr"/>
+      <c r="AA49" s="2" t="inlineStr"/>
+      <c r="AB49" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC49" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD49" s="2" t="inlineStr"/>
+      <c r="AE49" s="2" t="inlineStr"/>
+      <c r="AF49" s="2" t="inlineStr"/>
+      <c r="AG49" s="2" t="inlineStr"/>
+      <c r="AH49" s="2" t="inlineStr"/>
+      <c r="AI49" s="2" t="inlineStr"/>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>ZELADORIA/ CAPINA</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2030428472</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NPI- REALIZAR A CAPINA MANUAL NA ÁREA DA SUBESTAÇÃO, PARA A ATIVIDADE SERÁ UTILIZADO FERRAMENTAS MANUAIS. </t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>13, 62,63</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>71250305
+71350931
+70196255</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R50" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="inlineStr">
+        <is>
+          <t>A Frio</t>
+        </is>
+      </c>
+      <c r="U50" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V50" s="2" t="n">
+        <v>5304269</v>
+      </c>
+      <c r="W50" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X50" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y50" s="2" t="inlineStr"/>
+      <c r="Z50" s="2" t="inlineStr"/>
+      <c r="AA50" s="2" t="inlineStr"/>
+      <c r="AB50" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC50" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD50" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE50" s="2" t="inlineStr"/>
+      <c r="AF50" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG50" s="2" t="inlineStr"/>
+      <c r="AH50" s="2" t="inlineStr"/>
+      <c r="AI50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>ZELADORIA/ DEDETIZAÇÃO</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/OP</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>2028878481</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NPI / INDUSTRIAL - MANUTENÇÃO DEDETIZAÇÃO
+ - REALIZAR CONTROLE DE PRAGAS NA ÁREA INDUSTRIAL
+</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>13,14,19,63</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>72201357
+72278490</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S51" s="2" t="inlineStr"/>
+      <c r="T51" s="2" t="inlineStr">
+        <is>
+          <t>A Quente</t>
+        </is>
+      </c>
+      <c r="U51" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V51" s="2" t="n">
+        <v>5050460</v>
+      </c>
+      <c r="W51" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X51" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y51" s="2" t="inlineStr"/>
+      <c r="Z51" s="2" t="inlineStr"/>
+      <c r="AA51" s="2" t="inlineStr"/>
+      <c r="AB51" s="2" t="inlineStr"/>
+      <c r="AC51" s="2" t="inlineStr"/>
+      <c r="AD51" s="2" t="inlineStr"/>
+      <c r="AE51" s="2" t="inlineStr"/>
+      <c r="AF51" s="2" t="inlineStr"/>
+      <c r="AG51" s="2" t="inlineStr"/>
+      <c r="AH51" s="2" t="inlineStr"/>
+      <c r="AI51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>ZELADORIA/ DEDETIZAÇÃO</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Emitir</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>G&amp;E/UN-TERM/UTE-NPI/MAN</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>2028878481</v>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NPI / ADMINISTRATIVA - MANUTENÇÃO DEDETIZAÇÃO
+ - REALIZAR CONTROLE DE PRAGAS NA ÁREA ADMINISTRATIVA </t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>Rotina</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>Corretiva</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>13,14,19,63</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>72201357
+72278490</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S52" s="2" t="inlineStr"/>
+      <c r="T52" s="2" t="inlineStr">
+        <is>
+          <t>A Quente</t>
+        </is>
+      </c>
+      <c r="U52" s="2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="V52" s="2" t="n">
+        <v>5050460</v>
+      </c>
+      <c r="W52" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X52" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y52" s="2" t="inlineStr"/>
+      <c r="Z52" s="2" t="inlineStr"/>
+      <c r="AA52" s="2" t="inlineStr"/>
+      <c r="AB52" s="2" t="inlineStr"/>
+      <c r="AC52" s="2" t="inlineStr"/>
+      <c r="AD52" s="2" t="inlineStr"/>
+      <c r="AE52" s="2" t="inlineStr"/>
+      <c r="AF52" s="2" t="inlineStr"/>
+      <c r="AG52" s="2" t="inlineStr"/>
+      <c r="AH52" s="2" t="inlineStr"/>
+      <c r="AI52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>ZELADORIA/ ROÇAGEM</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>Emitir</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>G&amp;E/UN-TERM/UTE-NPI/MAN</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D53" s="2" t="n">
         <v>2029647944</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>NPI- ADM
-REALIZAR A ROÇAGEM NAS ÁREAS ADM - (PRESERVAÇÃO)</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G27" s="3" t="inlineStr">
+REALIZAR A ROÇAGEM NAS ÁREAS ADM - (HIDROLOGIA)</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G53" s="3" t="inlineStr">
         <is>
           <t>não</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>PTT</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
         <is>
           <t>Rotina</t>
         </is>
       </c>
-      <c r="K27" s="2" t="inlineStr">
+      <c r="K53" s="2" t="inlineStr">
         <is>
           <t>Corretiva</t>
         </is>
       </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>1,13,14,19,62,63,64</t>
-        </is>
-      </c>
-      <c r="O27" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P27" s="2" t="inlineStr">
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>13,14,19,62,63,64</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">71350931
 71742846
 </t>
         </is>
       </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="S27" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="T27" s="2" t="inlineStr">
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="S53" s="2" t="inlineStr"/>
+      <c r="T53" s="2" t="inlineStr">
         <is>
           <t>A Quente</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr">
+      <c r="U53" s="2" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V53" s="2" t="n">
         <v>5171046</v>
       </c>
-      <c r="W27" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="X27" s="2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y27" s="2" t="inlineStr"/>
-      <c r="Z27" s="2" t="inlineStr"/>
-      <c r="AA27" s="2" t="inlineStr"/>
-      <c r="AB27" s="2" t="inlineStr"/>
-      <c r="AC27" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD27" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE27" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF27" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG27" s="2" t="inlineStr"/>
-      <c r="AH27" s="2" t="inlineStr"/>
-      <c r="AI27" s="2" t="inlineStr"/>
+      <c r="W53" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="X53" s="2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Y53" s="2" t="inlineStr"/>
+      <c r="Z53" s="2" t="inlineStr"/>
+      <c r="AA53" s="2" t="inlineStr"/>
+      <c r="AB53" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC53" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD53" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE53" s="2" t="inlineStr"/>
+      <c r="AF53" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG53" s="2" t="inlineStr"/>
+      <c r="AH53" s="2" t="inlineStr"/>
+      <c r="AI53" s="2" t="inlineStr"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI27"/>
+  <autoFilter ref="A1:AI53"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>